--- a/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
+++ b/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>TestName</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>James Miteshtest</t>
+  </si>
+  <si>
+    <t>validate_Ford_E2EScenario_2Driver_2Vehicle</t>
   </si>
 </sst>
 </file>
@@ -631,10 +634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,9 +753,57 @@
         <v>28</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
+++ b/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>TestName</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>validate_Ford_E2EScenario_2Driver_2Vehicle</t>
+  </si>
+  <si>
+    <t>Coverage Start Date</t>
+  </si>
+  <si>
+    <t>04/21/2023</t>
+  </si>
+  <si>
+    <t>Today</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -217,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,10 +644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,11 +665,11 @@
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="31.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,13 +710,16 @@
         <v>31</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -746,14 +759,17 @@
       <c r="M2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -793,10 +809,13 @@
       <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>28</v>
       </c>
     </row>

--- a/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
+++ b/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
@@ -4,56 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="Welcome" sheetId="1" r:id="rId1"/>
-    <sheet name="AboutYourHome" sheetId="2" r:id="rId2"/>
-    <sheet name="Ford_E2E" sheetId="3" r:id="rId3"/>
+    <sheet name="Ford_E2E" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>TestName</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>PageMessage</t>
-  </si>
-  <si>
     <t>AddInfo</t>
   </si>
   <si>
-    <t>Common QA Environment</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Welcome to POEM Insurance. Let's get you the coverage you need to protect your home and property.</t>
-  </si>
-  <si>
-    <t>validate_PageAttributes_WelcomePage</t>
-  </si>
-  <si>
-    <t>validate_StartYourQuoteButton_WelcomePage</t>
-  </si>
-  <si>
-    <t>Tell us about your home</t>
-  </si>
-  <si>
-    <t>validate_PageAttribute_AboutYourHomePage</t>
-  </si>
-  <si>
     <t>validate_Ford_E2EScenario_1Driver_1Vehicle</t>
   </si>
   <si>
@@ -135,16 +103,58 @@
     <t>James Miteshtest</t>
   </si>
   <si>
+    <t>Coverage Start Date</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Vin Number 2</t>
+  </si>
+  <si>
+    <t>1FBAX9CG8PKB18944</t>
+  </si>
+  <si>
+    <t>Vehicle Trim</t>
+  </si>
+  <si>
+    <t>validate_Ford_E2EScenario_1Driver_2Vehicle</t>
+  </si>
+  <si>
+    <t>TRANSIT 350 WB 148 XL WAGON AWD</t>
+  </si>
+  <si>
     <t>validate_Ford_E2EScenario_2Driver_2Vehicle</t>
   </si>
   <si>
-    <t>Coverage Start Date</t>
-  </si>
-  <si>
-    <t>04/21/2023</t>
-  </si>
-  <si>
-    <t>Today</t>
+    <t>Second Driver First Name</t>
+  </si>
+  <si>
+    <t>Second Driver Last Name</t>
+  </si>
+  <si>
+    <t>Second Driver Sex</t>
+  </si>
+  <si>
+    <t>Second Driver Marital Status</t>
+  </si>
+  <si>
+    <t>Second Driver DOB</t>
+  </si>
+  <si>
+    <t>Second Driver Licence</t>
+  </si>
+  <si>
+    <t>B21191319831922</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Jul 22, 1983</t>
   </si>
 </sst>
 </file>
@@ -218,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -227,6 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,300 +540,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="31.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="4">
         <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="4">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="X5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="4">
+        <v>20</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="4">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId2"/>
+    <hyperlink ref="S6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
+++ b/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="74">
   <si>
     <t>TestName</t>
   </si>
@@ -155,6 +155,87 @@
   </si>
   <si>
     <t>Jul 22, 1983</t>
+  </si>
+  <si>
+    <t>validate_Ford_E2EScenario_3Driver_3Vehicle</t>
+  </si>
+  <si>
+    <t>Vin Number 3</t>
+  </si>
+  <si>
+    <t>1FBAX9CGXPKB19142</t>
+  </si>
+  <si>
+    <t>Third Driver First Name</t>
+  </si>
+  <si>
+    <t>Third Driver Last Name</t>
+  </si>
+  <si>
+    <t>Third Driver Sex</t>
+  </si>
+  <si>
+    <t>Third Driver Marital Status</t>
+  </si>
+  <si>
+    <t>Third Driver DOB</t>
+  </si>
+  <si>
+    <t>Ophelia</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Jul 01, 2001</t>
+  </si>
+  <si>
+    <t>Third Driver Licence</t>
+  </si>
+  <si>
+    <t>O90833926015701</t>
+  </si>
+  <si>
+    <t>validate_Ford_E2EScenario_4Driver_4Vehicle</t>
+  </si>
+  <si>
+    <t>Vin Number 4</t>
+  </si>
+  <si>
+    <t>1FBAX9X82PKA04599</t>
+  </si>
+  <si>
+    <t>Fourth Driver First Name</t>
+  </si>
+  <si>
+    <t>Fourth Driver Last Name</t>
+  </si>
+  <si>
+    <t>Fourth Driver Sex</t>
+  </si>
+  <si>
+    <t>Fourth Driver Marital Status</t>
+  </si>
+  <si>
+    <t>Fourth Driver DOB</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Chub</t>
+  </si>
+  <si>
+    <t>Dec 04, 1992</t>
+  </si>
+  <si>
+    <t>Fourth Driver Licence</t>
+  </si>
+  <si>
+    <t>C36754180926204</t>
   </si>
 </sst>
 </file>
@@ -540,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,29 +633,39 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -674,7 +765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -730,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -786,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -860,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -931,6 +1022,428 @@
         <v>43</v>
       </c>
       <c r="X6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>20</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -939,6 +1452,8 @@
     <hyperlink ref="L2" r:id="rId1"/>
     <hyperlink ref="N4" r:id="rId2"/>
     <hyperlink ref="S6" r:id="rId3"/>
+    <hyperlink ref="Y8" r:id="rId4"/>
+    <hyperlink ref="AE10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
+++ b/CoOpsAuto/src/test/resources/TestData/Ford_UI_QA_TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
   <si>
     <t>TestName</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Marketing Consent PhoneNum</t>
   </si>
   <si>
-    <t>shivam.rastogi-x+ford004@aidenai.com</t>
-  </si>
-  <si>
     <t>6476471234</t>
   </si>
   <si>
@@ -236,6 +233,12 @@
   </si>
   <si>
     <t>C36754180926204</t>
+  </si>
+  <si>
+    <t>shivam27august@gmail.com</t>
+  </si>
+  <si>
+    <t>validate_Ford_E2EScenario_2Driver_1Vehicle</t>
   </si>
 </sst>
 </file>
@@ -621,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>19</v>
@@ -706,10 +709,10 @@
         <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
@@ -729,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -744,22 +747,22 @@
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4">
         <v>20</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>18</v>
@@ -773,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -800,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>19</v>
@@ -812,10 +815,10 @@
         <v>21</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>1</v>
@@ -823,16 +826,16 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
@@ -841,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>14</v>
@@ -856,22 +859,22 @@
         <v>17</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="4">
         <v>20</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>18</v>
@@ -885,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -912,22 +915,22 @@
         <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>19</v>
@@ -939,13 +942,13 @@
         <v>21</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>1</v>
@@ -953,16 +956,16 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -971,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
@@ -986,10 +989,10 @@
         <v>17</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>15</v>
@@ -998,28 +1001,28 @@
         <v>16</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R6" s="4">
         <v>20</v>
       </c>
       <c r="S6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="U6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>18</v>
@@ -1033,13 +1036,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>5</v>
@@ -1063,37 +1066,37 @@
         <v>13</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="R7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="W7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>19</v>
@@ -1105,16 +1108,16 @@
         <v>21</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>1</v>
@@ -1122,19 +1125,19 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>6</v>
@@ -1143,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>14</v>
@@ -1158,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>15</v>
@@ -1170,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X8" s="4">
         <v>20</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="AA8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>18</v>
@@ -1223,16 +1226,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
@@ -1256,52 +1259,52 @@
         <v>13</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="S9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="X9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="AC9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>19</v>
@@ -1313,19 +1316,19 @@
         <v>21</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>1</v>
@@ -1333,22 +1336,22 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
@@ -1357,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>14</v>
@@ -1372,10 +1375,10 @@
         <v>17</v>
       </c>
       <c r="N10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>15</v>
@@ -1384,66 +1387,202 @@
         <v>16</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="Z10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD10" s="4">
         <v>20</v>
       </c>
       <c r="AE10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AG10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH10" s="6" t="s">
+      <c r="P11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AI10" s="6" t="s">
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AJ10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK10" s="6" t="s">
+      <c r="K12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="R12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1454,6 +1593,7 @@
     <hyperlink ref="S6" r:id="rId3"/>
     <hyperlink ref="Y8" r:id="rId4"/>
     <hyperlink ref="AE10" r:id="rId5"/>
+    <hyperlink ref="Q12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
